--- a/output/Total_time_range_data/河南省/驻马店市_学习考察.xlsx
+++ b/output/Total_time_range_data/河南省/驻马店市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,830 +436,910 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>161</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>河南省党政代表团赴广东湖北学习考察侧记</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202305/177109.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['5月10日至13日，由省委书记楼阳生、省长王凯率领的河南省党政代表团赴广东省、湖北省学习考察。', '短短4天，代表团成员奔波于广州、东莞、深圳、武汉四地，大家一路看，一路议，创新驱动、绿色发展的思路越来越清晰，推动改革、促进开放的决心越来越坚定。', '广州人工智能与数字经济试验区核心片区琶洲，已引入腾讯、阿里巴巴、唯品会、小米、科大讯飞等39家人工智能与数字经济领军企业，2022年，营收已经突破4000亿元，整体产业效益高速增长。', '广州市委工作人员介绍，如今，广州已成为全国唯一拥有国家实验室、综合类国家技术创新中心、国家重大科技基础设施、国际大科学计划、国家未来产业科技园等“国字头”重大科技创新平台的城市。', '大院大所“头雁”领飞，科技企业加速落地。“广州海洋实验室参与完成的‘我国率先实现水平井钻采深海可燃冰’，广州实验室研发出新冠IgM抗体快速检测试剂盒，科研成果转化成为生产力的例子太多了。”该工作人员说，这就是科技创新的力量。', '“科技创新的主引擎、改革开放的主阵地，这才是真正高质量发展啊！”代表团成员、新乡市委书记李卫东一边连声赞叹，一边拍照记录，“这次学习考察，让我们看到了差距，更明确了方向。我们将持续深化开发区‘三化三制’改革，加快建设中原农谷。”', '在深圳，“6个90%”创新密码被广为称道，即90%以上的创新型企业是本土企业、90%以上的研发机构设立在企业、90%以上的研发人员集中在企业、90%以上的研发资金来源于企业、90%以上的职务发明专利出自企业、90%以上的重大科技项目发明专利来源于龙头企业。', '“楼上创新、楼下创业；上午研发、下午孵化。”在赶往机场的路上，代表团成员、三门峡市委书记范付中仍在咂摸深圳先进技术研究院的“创新创业综合体”经验。“深圳的创新氛围之浓，新技术新模式新业态之多，让我们大开眼界。”他表示，创新的重要性大家都知道，关键在于敢不敢想、会不会想、善不善想。', '代表团成员纷纷表示，从珠江之滨到松山湖畔，从科研院所到产业园区，创新发展的蓬勃生机催人奋进，既开阔了视野、找到了差距，更学到了方法、坚定了信心。', '在过去，“创都深圳”经历过回落，“厂都东莞”经历过失速，“老汉阳造”一度被市场抛弃。', '在每一次波折中，这些城市都坚定不移调整产业结构，实现“腾笼换鸟”，然后以一番新的风貌继续引领全国城市发展。', '当下，在深圳，腾讯、比亚迪、大疆等上百家高科技企业汇聚成“创新大道”，成为城市新名片；在东莞松山湖高新技术产业开发区，华为、宇龙通信、易事特、生益科技等一大批“科技创新+先进制造”总部企业再造“新东莞”；汉阳铁厂浓烟熏染的故地，蝶变成为我国汽车及零部件产业最集中的区域之一……以新换旧、以新补短，这些制造业“老重地”不断焕发新活力。', '在省科技厅副厅长刘英锋看来，东莞聚焦“科技创新+先进制造”，以大湾区综合性国家科学中心先行启动区建设为引领，加快实施创新驱动发展战略，为产业高质量发展提供了有力支撑，东莞发展的宝贵经验非常值得学习借鉴。', '“视觉上受到冲击，心灵上受到震撼，思想上有了感悟。”代表团成员、许昌市委书记史根治说，通过4天的学习考察，充分认识到许昌与先进地区的差距，也无可争议地证明了省委、省政府深入推进“十大战略”的科学性、前瞻性、正确性。', '传统利益格局致使不愿转，不具备知识能力不会转，体制机制约束不能转等难题，必须逐一攻克。', '我省坚持把发展经济的着力点放在实体经济上，在传统产业上高位嫁接，在新兴产业上抢滩占先，在未来产业上前瞻布局，推动短板产业补链、优势产业延链、传统产业升链、新兴产业建链。', '把“内陆思维”融入“湾区思维”，河南必将在转型升级的探索中凝聚强大合力，蹚出一条符合实际的新路子。', '河南与广东，一个是中部地区的发展中省份，具有资源、人力和市场等比较优势；一个是南部沿海的发达省份，具有资本、技术和管理等综合优势。', '河南与湖北，同属中部六省，同是制造业大省，一个力争在黄河流域生态保护和高质量发展中走在前列，一个努力建设长江经济带绿色崛起先行区。', '豫粤、豫鄂经济之间已是我中有你，你中有我，进一步携手发展，未来的合作空间与潜力更是无限。', '广东省委书记黄坤明表示，广东与河南虽然相距千里，但一直以来经贸合作密切、人员往来频密，形成了携手并进、互利共赢的好局面，这为两省在新征程上携手开展务实合作、实现更好发展提供了有利条件，创造了广阔空间。', '湖北省委书记王蒙徽希望两省交流合作不断走深走实，在共护“一库净水北送”、共推基础设施互联互通、共建区域一体化的产业链供应链、共享优质公共服务等方面进一步深化合作，为新时代推动中部地区高质量发展，为全面建设社会主义现代化国家作出新的更大贡献。', '5月10日下午，广东·河南两省工作座谈会在广州市举行，签署战略合作框架协议，共商两省携手合作发展。', '5月11日，豫粤合作交流会在广州市举行。河南省党政代表团与在粤的企业、科技、教育、商协会等各界知名人士相聚珠江之畔，共叙友谊、共商合作、共谋发展。交流会还举行了项目签约仪式，共有63个项目在现场签约，总投资920.8亿元，涵盖先进制造业、新能源、半导体、农产品深加工、科技创新、医疗卫生等多个领域。', '在代表团成员看来，这是一次主题教育之旅、一次思想破冰之旅、一次深化合作之旅。通过学习考察，我省广大干部开阔了视野眼界，更新了思想观念，激发了闯劲干劲，也必将把学习成果转化为推进中国式现代化建设河南实践的强大动力！', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>161</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>长葛市董村镇考察团到正阳县学习考察基层党建工作</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202307/179922.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['7月1日，长葛市董村镇党委书记田清军率领考察团一行四十余人到正阳县学习考察基层党建工作，正阳县委组织部副部长郑午生及相关乡镇负责同志陪同考察。', '考察团先后到熊寨镇王楼村、花生小镇、清源街道唐段庄社区、彭桥乡大刘村，通过实地查看、查阅资料、现场询问的方式，详细了解了村党群服务中心、村级党建、“五星”支部创建、产业发展、美丽乡村建设等工作开展情况。', '熊寨镇王楼村去年在“五星”支部创建中，引进蕃顺番茄企业，投资建设30座番茄大棚，稳定建立“双绑”机制，助力集体经济收入达到80余万元。在村党群服务中心，村党支部书记姜超众分享“五星”支部创建经验时，从“支部过硬星”中分别抓好基层党建，带好班子和党员队伍等方面，与观摩团进行深入交流。在帮扶车间，考察团先后参观了超容电子和超鸿喜庆生活用品有限公司，了解到两家企业通过“双绑”机制，带动周边群众70余人在家门口实现就业，为村集体增收近10万元。在黄屯、东王庄，观摩团详细了解农村人居环境整治、美丽乡村建设、长效管护机制、乡村治理等方面的做法，并探讨有关难点问题的解决办法。', '在花生小镇，观摩团听取了企业负责人围绕花生主题，打造三产融合、七位一体工业观光旅游项目运行情况的汇报。实地参观了花生文化展示展览中心，对花生小镇在助力乡村振兴方面发挥的引领作用给予了高度评价。', '清源街道唐段庄社区去年创成“五星”级党支部。观摩团通过参观该社区活动展板、产品展示、村党群服务中心建设等情况，详细了解了唐段庄社区聚焦“五星”支部创建，明确工作“主基调”，凝聚“五心”、画好工作“路线图”，精准发力，以活动为载体，补短板、强弱项，迅速掀起“五星”支部创建热潮，并带动产业发展、民生实事、集体增收等各项工作提质增效、再上台阶，赢得了观摩组成员的一致好评。', '在彭桥乡大刘村，观摩团先后参观了初心广场、党建文化长廊、新时代主题游园、村党群服务中心，详细了解了阵地提升、人居环境整治、“八岗八条”积分星级管理、“一村一品”产业发展、“三零”创建、资料归档等情况，并就“五星”支部创建、基层党建、产业发展等方面进行了深入交流。', '通过实地观摩学习，观摩团一行对正阳县“五星”支部创建、党建引领发展壮大村级集体经济、党建引领乡村治理工作给予了高度评价。观摩团表示，此次观摩学习给他们留下了深刻的印象，下一步，希望加强联系，相互学习，共同提高，不断探讨基层党建工作、产业发展、人居环境等方面的新经验、好做法。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>161</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>河南省党政代表团启程赴广东湖北学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202305/176835.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['在全省上下深入学习贯彻党的二十大精神、深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育之际，5月10日上午，由省委书记楼阳生、省长王凯率领的河南省党政代表团启程赴广东省、湖北省，开展为期4天的学习考察。', '学习考察期间，代表团将先后到广州、东莞、深圳、武汉4市，深入科创企业、产业园区、科研院所、高等院校、金融集团、文化街区等地，学习先进理念，拓展视野格局，借鉴他山之石，深化务实合作；与广东、湖北两省分别举行政务活动，举办豫粤合作交流会，深度对接、积极融入粤港澳大湾区、长江经济带发展战略，在新征程新起点上扎实推进中国式现代化建设河南实践。', '广东是改革开放的排头兵、先行地、实验区，湖北是长江经济带、促进中部地区崛起等多个国家战略的交汇地和承载地。本次活动将着眼高质量发展所需、立足河南所能、学习两省所长，对接两省在对外开放、深化改革、科技创新等方面的优势，在共建高端研发平台、联合开展技术攻关、加强人才交流、发展枢纽经济、促进文旅融合等方面深化合作，共创豫粤、豫鄂合作优势互补、发展互惠共赢的新局面。', '有关省领导，各省辖市党委、济源示范区党工委、航空港区管委会和省直有关单位党组（党委）、省管有关企业党委主要负责同志参加活动。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>161</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>学有所获行有信心驿城区委常委组织部长带队赴郑州市金水区学习考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202308/181785.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['学有所获 行有信心——驿城区委常委、组织部长带队赴郑州市金水区学习考察 - 驻马店人民政府', '求学不止，步履不停。为持续提升党建引领城市基层治理效能，8月20日，区委常委、组织部长王凤霞一行6人，赴郑州市金水区花园路街道就基层治理、红色物业创建和社区社会企业等相关课题进行了实地考察，并与通信花园社区副书记张美荣和相关领域专家进行了深入座谈交流。', '在通信花园社区，考察组先后查看了长者同乐食堂、社区便民服务超市、楼道党建文化建设，详细了解通信花园社区通过党建引领破解难题，以“九在楼组”为载体，采用“1+3+N”模式即支部建在楼组和社团，每个楼组成立党支部和n支楼组自治服务队，开展楼组内养老助残、扶贫济困、结对帮扶、矛盾化解等服务的工作模式，激发基层党建新活力的生动实践。尤其对通信花园社区“管好自家事、关心楼组事、参与社区事”的“亲人社区”式多元共治经验感触颇深。', '考察组表示，此次学习考察，行程紧凑、主题鲜明、内容丰富，让大家深受启发、收获颇多，既开阔了视野、看到了差距，又感到了压力、学出了动力。', '王凤霞强调，要深学“理念”，进一步强化现代化视野、全局性思维，坚持科学谋划，抓紧抓实城市基层党建促城市基层治理这一工作主线，以更高站位、更宽视野、更强担当推进党建高质量发展；要深学“标准”，围绕“一老一小一青壮”，突出高度、角度、精度谋划推动，坚持问题导向，深化推进红色物业、网格化精细治理等，助推城市基层治理实践破题；要深学“执行”，进一步提升落实能力，有力度、有速度、有法度地推进各项党建重点工作落地落细，切实将党的组织优势、制度优势转化为治理优势和治理效能，确保提质增效、行稳致远。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>161</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>江西省考察团在豫就农业产业化发展进行学习考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202303/173436.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['3月10日至12日，江西省委常委梁桂、江西省政府副省长卢小青率江西省考察团在豫就农业产业化发展进行学习考察。', '考察团一行先后到新乡市、漯河市、郑州市考察。在新乡市雨轩清真食品股份有限公司、河南九豫全食品有限公司等企业，考察团从产品研发、食品生产加工、运营模式等方面详细了解预制菜产业发展情况；在漯河市，考察团分别到临颍县国家级现代农业科创园、河南中大恒源生物科技有限公司、中原食品实验室、双汇第一工业园、卫龙美味三期产业园实地考察，详细了解现代农业和食品产业发展情况；在郑州市，考察团到好想你健康食品股份有限公司、三全食品股份有限公司等企业，深入考察特色农产品加工业发展情况。', '河南省是农业大省、农产品加工大省。考察团一致认为，河南强化创新驱动、龙头带头、改革推动，不断完善产业链、畅通供应链、提升价值链，农业产业化加速发展，全省农业质量效益和竞争力切实提高。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>161</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>遂平县委常委县委政法委书记带队赴确山县学习考察市域社会治理现代化工作</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202304/175598.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['遂平县委常委、县委政法委书记带队赴确山县学习考察市域社会治理现代化工作 - 驻马店人民政府', '为进一步提升我县社会治理现代化工作水平，4月14日上午，县委常委、县委政法委书记王月红带领县综治中心全体人员和各乡镇（街道）政法委员或综治中心主任赴确山县学习考察市域社会治理现代化工作。县法院院长刘冬、县委政法委常务副书记王晓晔参加考察，确山县委常委、政法委书记王霞、政法委副书记刘玉新陪同考察。', '考察组一行先后到确山县综治中心、三里河街道综治中心、中店社区赵庄组微治理工作站、后楼社区综治中心等地，通过观看专题片、听取现场讲解、实地查阅资料、和相关负责人交流座谈等形式，详细学习了解了确山县乡村三级市域社会治理现代化工作开展情况。', '考察过程中，双方还就市域社会治理现代化试点验收资料档案收集、推进工作中方式方法创新等工作中存在的难点以及遇到的困难问题相互交换意见、答疑解惑，找差距、谈想法，相互学习、共享经验，取长补短、共同提高，使兄弟县之间的感情进一步升温，营造了团结互助、共谋进步的良好工作氛围。', '王月红指出，通过学习考察，感到确山县市域社会治理现代化工作有思路、有亮点、有成效，很多经验和做法值得我们学习参考。下步，我们将把确山县好的经验做法带回去，结合遂平实际，融会贯通，强化运用，努力把弱项补成强项，把亮点擦得更亮，进一步提升遂平市域社会治理能力和水平，为全市创建工作贡献遂平力量。', '通过此次学习考察，大家一致认为，时间虽然很短，但行程安排紧凑，考察内容丰富，感触颇深，受益匪浅。回去之后将以此次学习考察为契机，认真梳理此行所见所学、总结有效经验做法，着力推动工作方式方法创新，全力提升市域社会治理现代化工作水平，奋力推动更高水平的平安遂平建设。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>161</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>遂平县副县长带队赴安阳市学习考察</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202304/174925.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['3月29日至30日，遂平县政府副县长冯浩带领县政府办、县农业农村局和部分乡镇负责同志到安阳市学习考察农村人居环境整治、乡村产业发展和高标准农田建设等工作。安阳市农业农村局、滑县、安阳县相关领导陪同。', '考察组一行先后到滑县滑丰种业、道口烧鸡产业园、农业产业融合发展示范园、慈周寨高效农业示范园、安阳县西裴村、东路村、广润坡农田科技中心参观学习。', '通过收集资料、实地参观、现场了解、与乡村干部交流、座谈会等形式，考察组深入学习了安阳农业农村工作中好的做法、先进经验和独特模式，达到了预期效果，起到了借鉴提升工作的目的。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>161</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>驻马店市人民政府</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['国务院批复同意在沈阳等6个城市暂时调整实施有关行政法规和经国务院批准的部门规章规定', '关于2023年国民经济和社会发展计划执行情况与2024年国民经济和社会发展计划草案的报告（全文）', '中共中央 国务院关于学习运用“千村示范、万村整治”工程经验有力有效推进乡村全面振兴的意见', '本栏目是受理公民、法人和其他组织对驻马店各级人民政府以及政府工作部门的意见和建议的一个网上窗口。您的来信我们将通过一定的程序进行办理，并在一定的时限内向您反馈处理结果。', '驻马店市人民政府办公室关于印发《关于加强低收入人口动态监测和分层分类社会救助工...', '驻马店市人民政府办公室关于印发《驻马店市培育壮大电子信息产业行动方案（2024—202...', '驻马店市人民政府办公室关于转发《河南省人民政府办公厅关于印发2024年河南省便民利...', '驻马店市人民政府办公室关于转发河南省人民政府办公厅关于加快新型储能发展的实施意...', '驻马店市人民政府关于印发落实河南省推动大规模设备更新和消费品以旧换新实施方案责...', '《关于加强低收入人口动态监测和分层分类社会救助工作巩固脱贫攻坚兜底保障成果的实...', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>161</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>汝南县党政考察团到新蔡县学习考察重点项目建设</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202206/157709.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['邵奉公首先代表新蔡县四个班子领导对汝南县党政考察团的到来表示热烈欢迎。他说，汝南和新蔡一衣带水，一直都有着良好的友谊和深切的交流。近年来，汝南县乡村振兴、文化旅游、人居环境、敬老院建设等工作走在全市前列，是新蔡县学习的榜样。新蔡县深入贯彻落实中央、省委、市委决策部署，提出了“工业强县、农业稳县、科教兴县、文旅活县、生态立县”的发展思路，各项事业取得了新成就、迈上了新台阶。希望借此机会，双方进一步加强交流，相互学习，实现两地经济社会携手发展，共同进步。', '考察团先后来到奥田家居、乐居户外、亚特重工、佳诺威一期、红星美凯龙、蔡洪坊酒业等企业。每到一处，考察团成员都认真听取项目建设总体情况，详细了解项目引进、落地、建设中好的经验和做法，并走进生产车间，深入了解各重点项目的发展状况、规划布局、生产经营等情况。', '考察中，该县考察团对新蔡县重点项目建设工作给予高度评价和充分肯定，认为新蔡县高度重视产业发展，紧抓项目建设不放松，围绕食品药品、现代家居、智能装备三大主导产业，大抓项目、抓大项目，不断推动项目蓄能提质增效。新蔡县在招商引资、产业发展、项目规划中，思路清晰、目标明确、效果显著，对于汝南重点项目建设工作有很大的启发和借鉴意义。', '考察团成员纷纷表示，通过此次考察学习，解放了思想，开阔了视野，激发了干劲，增强了干事创业的信心和决心。回去后要把这些经验认真梳理总结，结合该县实际情况，进一步提高政治站位，落实责任，树立信心，更新观念，迅速行动起来，认真谋划工作思路，细化工作措施，坚定不移实施“六大战略”，为汝南“三县一家园”建设贡献力量。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>161</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>遂平县委副书记县长带队赴安徽太湖县合肥市太和县学习考察</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202206/158290.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['6月16日至18日，遂平县委副书记、县长李振南带领遂平县学习考察团一行，赴安徽省太湖县、合肥市、太和县学习考察。两天半时间里，考察团一行紧锣密鼓，行程近两千公里，在太湖县县长吴海宏、太和县县长陈建华陪同下学习考察产业发展、招商引资、服务业发展等先进经验。通过学习考察，学出了清醒忧患、学出了思路启示、学出了措施方法。', '李振南一行在太湖县县长吴海宏陪同下，深入太湖县富印新材料、金张科技、泓冠光电、集友新材料等企业和膜都小镇展示厅，进车间，听介绍，看规模，问发展，详细了解功能膜新材料产业发展、招商引资举措等方面情况。', '在随后召开的座谈会上，考察团听取了太湖县县长吴海宏及相关部门负责人对太湖县在功能膜产业和文旅产业发展等方面的介绍，双方就功能膜新材料产业发展，精准延链补链强链，推进产业集群化发展进行了深入交流。李振南表示太湖县产业定位思路清晰，聚焦功能膜新材料产业，聚力招大引强，大力推进产业集群化发展，充分发挥长江经济带优势，工业发展、对外形象进一步凸显，在土地要素保障等方面有很多好的经验和制度，值得借鉴学习。遂平县历史悠久、区位优越、风景秀丽，拥有良好的产业基础和资源禀赋，与太湖在很多领域有较强的联动性、互补性，期待两县合作共赢。', '6月17日，考察团到合肥合柴·1972文创园、罍街实地考察。合柴·1972文创园的工业遗址保护与文化创意结合、罍街的特色文化街区和夜间经济等给考察团留下了深刻的印象，给我县做大做强文旅经济，推进“全域旅游、全景遂平”建设提供了很好的经验。', '6月18日，考察团到达安徽省太和县。太和县是全国著名医药集散中心、全国最大的发制品原料集散地，生物医药、发制品、工业筛网、有色金属再生四大主导产业特色鲜明。', '李振南一行在太和县县长陈建华陪同下，先后参观考察了百麓蘑菇产业园、太和保兴医药健康产业园、安徽富泰发饰文化股份有限公司、安徽华源现代物流园。每到一处，大家都认真听、仔细看，并与工作人员互相交流，详细了解太和县在招商引资、产业规划、物流园建设等方面的先进经验和做法。', '李振南表示，此次学习考察，是一次更新观念之旅、是一次寻标对标之旅，更是一次学经验找办法之旅。要认真总结这次学习心得，变触动为行动、变压力为动力，以学促思、以思促行，推动我县在县域经济“成高原”中奋勇争先、更加出彩。一要解放思想。思想差距是最大的差距，观念落后是最大的落后。积极向先进地区学习，开阔眼界，提升能力水平，充分学习创新举措，把好经验、好做法落实到产业发展、项目建设等实际问题上，真正把解放思想渗透到日常工作中、落实到具体行动上。二要抓实产业。坚定不移把制造业发展作为主攻方向，聚焦食品制造、装备制造、新材料制造“2+1”产业集群，培育“链主”、完善链条，加快延链补链强链，推动产业全链条发展，做大产业集群，推动产业提质升级。对接融入新兴产业链，积极引进头部企业，培育“专精特新”企业，尤其是要培育壮大新材料产业集群，学习太湖县功能膜新材料发展经验，努力打造全国知名新材料产业基地。三要务实重干。躬身入局、挺膺负责，实事求是、真抓实干，扎实工作，不做表面文章，以实干立身、凭实绩说话，奋力谱写新时代遂平更加出彩的绚丽篇章。', '考察团成员一致认为，此次考察开阔了眼界、拓宽了思路，收获颇多、受益匪浅，将按照李县长要求把学习到的好经验、好做法转化为推动工作的实践，全力加快遂平经济社会高质量发展。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>161</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>汝南县赴新蔡县学习考察重点项目建设座谈会召开</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202206/157708.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['6月8日下午，汝南县赴新蔡县学习考察重点项目建设座谈会在县委中心会议室召开。县委书记李卫明出席会议并讲话，县委副书记、县长杜娟，县领导于向阳、陈雁飞、王志伟、李峰等出席会议。', '座谈会上，参加考察的人员分别作了交流发言，并围绕如何进一步推进我县重点项目建设提出了建设性的意见和建议。', '李卫明指出，一是必须坚持以经济建设为中心不动摇，牢记发展是第一要务，任何时候都不能犹豫、不能徘徊、不能放松，真正靠实力树立形象，靠发展赢得尊重。二是必须找到一条符合自身实际的发展道路，认真分析本地的资源禀赋、比较优势，研究产业发展大势，科学谋篇布局，找准发展路径。三是必须把广大党员干部的精力凝聚到干事创业上来。要树立正确的工作导向和用人导向，奖优罚劣、赏罚分明，激发广大干部的潜力、活力、动力。要有战胜困难的信心和勇气，增强干事创业的自豪感和责任感。四是努力为企业发展营造宽松的环境。服务企业不能仅仅停留在解放思想上，要把解放思想付诸行动，认真研究问题、分析问题，找到解决问题的办法和措施，帮助企业发展壮大，不断提高企业竞争力和影响力。', '李卫明要求，一要坚定发展信心。各级各部门要在各自岗位上朝着县委、县政府谋划的目标方向努力奋进，坚定不移走适合汝南发展的道路，充分发挥汝南的比较优势，为汝南未来发展打下坚实基础。二要强力推进招商引资。要认清新形势，树立新目标，突出招大引强，着力推进“大招商、招大商”，实现招商引资取得新的更大突破。三要强化土地供给。要充分挖掘土地资源，推进土地集约高效利用，科学确定土地供应规模，最大限度保障工业发展。四要推进资源整合。要盘活闲置厂房，打造规模化园区，推动“多”变“精”、“小”变“大”，推动产业做大做优做强。五要建好专业园区。根据产业布局，加快建设新能源电动车配套、皮革制鞋、电子信息、汽车零部件、农副产品加工、循环经济、农机配件等产业园，加快推进产业园区化建设。六要发挥平台作用。平台公司要切实增强抓好产业发展的责任感和使命感，紧紧围绕县委、县政府的重大决策部署，坚持“项目为王”，在项目建设上狠下功夫，研究解决融资、建设、运营等一系列问题，强化责任担当，振奋精神状态，提高工作效率，研究业务，防范风险，促进谋划的一系列项目落地。', '李卫明强调，没有等出来的辉煌，只有干出来的精彩。希望大家一定要有只争朝夕的精神状态，全力以赴投入工作中去。要增强“等不起”的紧迫感和“慢不得”的危机感，树牢“汝南发展，我的责任”的家国情怀，强化“汝南发展、舍我其谁”的担当精神，夙兴夜寐，勤奋工作，加快推进重点项目建设，为建设“三县一家园”宏伟目标作出应有的贡献，奋力谱写建设社会主义现代化汝南新篇章。', '县委办、政府办、发改委、自然资源局、住建局、城管局、交通局、水利局、招商中心、开发区管委会等相关单位主要负责人参加会议。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>161</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>驻马店市赴新乡学习考察科技创新和人才工作</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202112/145730.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['12月16日，市组织部副部长郭贵春、市科技局局长胡晓黎带领市委组织部、市科技局、市人社局、天方药业等部门有关同志一行11人，赴新乡市考察科技园区建设，人才引进、培养、使用和驼仁医疗等科技创新工作。新乡市组织部副部长宋思强、新乡市科技局党组成员、四级调研员火晓勇等陪同调研。', '考察组先后到新乡市高新技术创业服务中心、河南省高远公路养护技术有限公司和长垣县驼人集团有限公司，通过实地考察、访谈交流等形式，深入了解了新乡市、长垣县科技、人才等工作经验做法。', '此次考察，学习了新乡市、长垣县结合当地产业，以引进培育“高精尖缺”人才助推产业发展为目标，以政策扶持为引导，以政府奖补为撬动，制定出台的一系列科技创新和引才政策，以及重视科技创新和高层次人才引进投入大量财政资金，营造良好环境，激发企业科技创新和用才主体作用。 长垣县驼人集团有限公司加大科技投入、积极引才用才，引领企业做大做强的成功经验。', '下一步我市要借鉴新乡市、长垣县等地经验，落实现有科技创新和引进高层次人才政策，提高政府公信力，优化营商环境；修改完善我市引才政策，激发企业科技创新和用才主体作用，促进我市产业转型升级。企业要解放思想，开拓创新，主动“走出去、引进来”，积极引才用才，发挥人才的智力支撑作用，引领企业做大做强。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>161</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>市工信局赴苏州进行实地学习考察</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202109/138609.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['为建立完善企业服务长效机制，提升我市企业服务效能，9月7日-9日，市工信局任新军总工程师、李信总经济师带领相关科室负责人赴苏州市进行了实地学习考察。', '学习考察团与苏州市工信局服务企业处及“苏州市企业服务总入口”承建运营公司进行了座谈交流，全面了解了“苏州市企业服务总入口”总体思路、建设历程、运营模式等情况。', '学习考察团到苏州市智能制造融合发展中心进行实地学习考察，深入了解“苏州市企业服套总入口”线下展厅，同时参观了工业互联网建设应用、智能制造应用展示中心。', '学习考察中，苏州市服务企业力度、独特的产业发展模式等让考察团成员感触颇深，收获很大，看到了差距，拓展了思路，形成了共识，切实増强了加快发展的责任感和紧迫感、危机感。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>161</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>汝南县考察团赴南阳学习考察乡村振兴和旅游发展工作</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202104/127942.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['近日，县人大常委会主任王志伟，县委常委、县委宣传部部长赖学争带队赴南阳市桐柏县考察学习乡村生态旅游发展和美丽乡村建设。县文旅局、县住建局、县农业农村局、县自然资源局等县直单位及相关乡镇（街道）负责人一同参加考察学习。', '考察团一行先后参观了桐柏县新集乡红色革命圣地和磨沟村民宿项目，实地考察了磨沟村民宿旅游开发情况，听取了相关负责人对当地旅游发展模式的介绍，详细了解了民宿发展的背景故事、先进经营理念和完善基础设施等经验做法。', '考察中，王志伟指出，此次考察学习让我们看到了未来乡村旅游的发展方向，为该县发展乡村旅游提供了学习借鉴的经验，未来生态、休闲、体验游将成为主流，大力推进美丽乡村建设，能够实现城乡一体化融合发展，增加群众收入和就业机会，带动地方经济发展。大家要虚心学习亮点工作和先进经验，结合该县实际，深入挖掘文化资源，促进产业、文化和旅游融合发展，努力推动汝南县乡村振兴和旅游发展工作再上新台阶。', '考察团成员纷纷表示，此次考察之行收获颇丰，既增长了见识，又启迪了思路，更加坚定了加快该县乡村振兴和旅游高质量发展的信心和决心。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>161</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>新蔡县学习考察正阳县新时代文明实践工作</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202103/126782.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['3月16日上午，新蔡县委常委、宣传部长王霞率队到正阳县学习考察新时代文明实践工作。县委常委、宣传部长夏广德等陪同考察。', '在县文体中心，新蔡县学习考察团一行参观了城市规划展览馆、博物馆、正阳县革命历史展厅、县融媒体中心，听取了讲解员的现场讲解，观看了“正阳城市规划宣传片”“乡村振兴战略片”等视频，现场体验电子签名，了解融媒体中心各部门运营情况。考察团对县文体中心和县融媒体中心运用高科技手段，扎实推进各项工作开展给予了高度评价，对正阳县新时代文明实践工作取得的成绩留下了深刻印象。', '在真阳街道庞桥村，考察团参观了庞桥村新时代文明实践站，听取了庞桥村如何开展好婚嫁新风引导、展厅内容更新，村集体如何壮大经济收入和文化宣传等工作介绍，并对如何开展好新时代文明实践活动，与该县同行进行探讨。在正阳县花生天地集团，考察团观看了花生文化展示展览、《正阳正当时》专题片，了解该县的花生文化演进，品尝花生加工休闲产品，盛赞正阳县依托花生产业壮大县域经济的典型做法。', '考察结束后，新蔡县考察团一行表示，他们将通过此次来正阳县的参观学习，认真借鉴正阳县在文明实践建设方面的经验做法，以期在今后的实际工作中加强沟通交流，联手推动两地新时代文明实践工作花开遍地！', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>161</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>汝南县城市创建办赴新蔡学习考察</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202012/118993.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['12月16号下午，县人大常委会党组副书记、县总工会主席陈运华带领汝南县城市创建办考察团到新蔡县考察学习城市创建工作。', '新蔡县委宣传部副部长高华民等陪同考察。陈运华一行先后来到西湖公园、东湖公园、洪汝河水系项目、月亮湾公园等地，深入学习考察新蔡县在城市创建各项工作中的具体措施和经验做法；双方还就各自城市创建先进经验、做法进行了深入探讨和交流。', '高华民对陈运华一行的到来表示欢迎，并详细介绍了新蔡县城市创建、城市建设管理等方面工作的相关情况。高华民指出，近年来，新蔡县委、县政府高度重视精神文明建设工作，坚持以培育和践行社会主义核心价值观为根本，以创建全国文明城市为总抓手，扎实推进公民思想道德建设，不断深化群众性精神文明创建活动，广泛开展先进典型学习宣传，崇德向善、诚信互助的社会风尚更加浓厚，市民素质和城市文明程度不断提升。', '通过实地考察，陈运华一行对新蔡县在城市创建工作中取得的突出成效给予高度评价，认为新蔡县发展思路明确，措施得力，值得认真学习、吸收、借鉴。陈运华表示，今后要进一步加强两地之间的交流，并将以此次考察学习为契机，认真学习、充分借鉴新蔡县的先进经验和做法，结合实际，强化措施，攻坚克难，加快推进城市创建各项工作。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>161</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>汝南县人民政府</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/plus/xxgk/list.php?classid=9641</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['汝南县东官庄镇传达落实贯彻县巩固拓展脱贫攻坚成果有效衔接乡村振兴工作视频第四次推进会议精神', '擂台比武争先锋比学赶超促提升——南余店乡举办党支部书记“创‘五星’、争先锋”擂台比武活动', '能力作风大学习促进工作大提升——南余店乡学习习近平在省部级主要领导干部专题研讨班上的讲话精神', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>161</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>河南省党政代表团在京学习考察深化京豫合作携手共谋十四五发展</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202012/118051.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['河南省党政代表团在京学习考察 深化京豫合作 携手共谋“十四五”发展 - 驻马店人民政府', '12月19日，河南省党政代表团在北京学习考察，认真学习贯彻党的十九届五中全会和中央经济工作会议精神，学习借鉴先进理念和经验，谋划推动河南“十四五”时期发展。当天，北京市·河南省战略合作座谈会举行。中共中央政治局委员、北京市委书记蔡奇，北京市市长陈吉宁、市人大常委会主任李伟，河南省委书记王国生、省长尹弘出席。', '蔡奇对河南省党政代表团来京考察表示欢迎，对河南长期以来给予北京的大力支持表示感谢。他指出，南水北调一泓清水把京豫两地人民紧紧连在一起。要深入贯彻党的十九届五中全会精神，深化京豫对口协作，推进多领域合作，在构建新发展格局中实现互利共赢。要高标准落实对口协作任务，推进两地区县（市）结对帮扶，谋划实施一批具有带动示范意义的战略性项目。共同抓好生态环境保护，深化南水北调水源保护合作，持续开展大气污染联防联控联治，携手打造天蓝水净的优美环境。以创新为引领推动产业合作，发挥中关村国家自主创新示范区的辐射带动作用，利用在京科技资源，支持河南传统产业转型升级，推动北京科技创新成果在河南落地转化，引导京企到豫发展。推进北京自贸区与河南自贸区合作，共同打造高水平对外开放高地。以大运河文化传承利用为纽带，携手做好考古挖掘、文化保护和旅游开发。深化两地学校、医院“手拉手”结对活动，加大专业人才交流和培训力度。拓宽河南省优质农产品进京渠道，支持京企到豫建设绿色农产品生产基地。', '王国生对北京长期以来给予河南的支持帮助表示感谢，他说，近年来，北京市立足首都城市战略定位，加快推进“四个中心”功能建设，提高“四个服务”水平，大格局谋划、精细化治理，实现经济实力和发展质量同步提升，创造了许多宝贵经验，为河南树立了学习标杆。河南与北京渊源深厚、情谊悠长，南水北调中线一期工程通水6年来，河南统筹推进水环境治理、水生态保护，确保一渠清水永续北送。今年年初以来，面对突如其来的新冠肺炎疫情，全省各级党组织和广大党员干部主动担当作为，充分发动群众，坚决筑牢疫情防控的中原防线。当前，河南全省上下正在深入贯彻落实党的十九届五中全会和习近平总书记视察河南重要讲话精神，认真学习贯彻中央经济工作会议精神，牢牢抓住中部地区崛起、黄河流域生态保护和高质量发展重大战略机遇，深入谋划“十四五”时期发展。我们将发挥优势、强化对接，共同推动京豫两地合作交流迈上新台阶，携手为“十四五”开好局起好步作出更大贡献，以优异成绩迎接建党100周年。', '陈吉宁、尹弘分别介绍了两地经济社会发展情况。河南省政府与北京市政府签署战略合作协议，双方将在南水北调对口协作、加强生态环保、科技创新、产业转移、文旅融合发展等方面深化合作，打造跨区域合作样板和国内循环示范亮点。', '当日，河南省党政代表团参观了北京城市副中心规划展厅，考察了千年城市守望林、中关村智造大街等地。', '北京市领导魏小东、崔述强、张家明、隋振江、靳伟，河南省领导李亚、穆为民、徐立毅、武国定参加活动。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>161</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>三论河南省党政代表团赴沪苏浙地区学习考察</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202011/116671.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['东风浩荡，中原帆满。紧跟习近平总书记步伐，我省党政代表团赴上海、奔江苏、看浙江，深入贯彻落实党的十九届五中全会精神，深度对接长三角一体化和长江经济带国家战略。如此大规模的学习考察活动，对河南来说并不多见。党的十九届五中全会擘画了美好蓝图，鼓舞人心、催人奋进，也让我们更加深刻地认识到，河南在国家大局中的地位愈加重要、责任愈加重大。下一个五年，河南怎么干？这是摆在我们面前现实而又紧迫的任务。对标先进地区，学习先进经验，主动融入国家战略，不仅是一次思想上的启迪、观念上的碰撞，更是发展所需、行动召唤。', '对于河南来说，这次赴沪苏浙学习考察，是一个好的开端，一路上，我们看到了差距、开阔了视野、学到了经验，树立起强烈的危机意识和改革决心。但光有认识还不够，只是“学到”还不行。考察回来怎么干？“学到”如何“用到”“用好”？最终都要体现在抓落实的具体工作中。', '我省党政代表团刚考察归来，省委常委会便迅速召开扩大会议，深入学习习近平总书记视察江苏、主持召开全面推动长江经济带发展座谈会和在浦东开发开放30周年庆祝大会上的重要讲话精神，听取关于我省党政代表团赴沪苏浙学习考察情况汇报等，研究贯彻落实意见。党政代表团乘坐的飞机一落地，大家纷纷拿出手机，在电话中安排，以各种形式把学习思考的成果及时传达下去。紧密而又充实的工作安排，“坐不住”“等不得”的学习心态，传递出时不我待、助推高质量发展的紧迫感。', '学以致用，重在消化吸收。经验一箩筐，一抓一大把，只有善于消化吸收，才能真正收到补充营养、增强体质的效果。要吸收长三角地区的先进理念、先进做法，并将之转化为工作成效。上海的优化营商环境从1.0版法治化、2.0版国际化向3.0版便利化推进；苏州工业园区不仅重视企业引进、提升产业链水平，还注重优化生态环境；浙江紧紧抓住数字经济这一新引擎，培植肥沃“土壤”，提供丰沛“雨水”，涵养了创新创业的“热带雨林”。直面差距，河南更须奋起直追。要强化创新驱动，打好关键核心技术攻坚战，不断提升产业能级和核心竞争力；强化开放带动，深入推进高水平制度型开放，增创国际合作和竞争新优势；强化改革推动，推进重要领域和关键环节改革，打造市场化、法治化、国际化的一流营商环境，提高城市治理现代化水平，激活高质量发展新动力。', '学以致用，重在久久为功。我省与沪苏浙三地发展同向、优势互补，在对接国家战略、深化产业合作、加强科技创新等方面，有着广阔的合作空间和潜力。此次代表团一行，共举办3场座谈会，签约133个项目，项目总投资额1751.88亿元，可谓硕果累累、满载而归。各地各部门要拿出持之以恒、常抓不懈的韧劲，建立台账、督促执行，一任接着一任干，一锤接着一锤敲，一个目标干到底，既要播下合作的“种子”，更要收获合作的“果实”。', '学以致用，重在解放思想。解放思想，是一个社会活力的来源。我们不仅要学习沪苏浙的经验做法，更要善于从经验做法中总结规律性认识。沪苏浙三地经济之所以“身强体壮”，最核心的秘诀就在于思想解放、敢闯敢拼。把学习考察成果转化为工作成效，我们必须来一场解放思想的深刻革命，在对接国家战略、融入新发展格局中抢抓机遇、创造机遇。', '好风东方起，拂面耳目新。相信这次党政代表团考察长三角之行，不仅激起一层涟漪，还能搅动一泓池水，让全省上下都行动起来，为全面建设现代化河南作出不懈努力！', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>161</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>一论河南省党政代表团赴沪苏浙地区学习考察</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202011/116557.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['在深入学习贯彻党的十九届五中全会精神，统筹谋划“十四五”时期经济社会发展的关键时期，我省党政代表团赴上海、江苏、浙江学习考察，瞻仰红色遗址、深入企业调研、开展合作交流、签约投资项目，深度对接长三角一体化和长江经济带国家战略，学习借鉴先进地区发展经验，主动融入“双循环”新发展格局。', '一路考察，一路学习，一路深思，代表团怀着学习标杆“见贤思齐”的责任感、迎头赶上时不我待的紧迫感，从得风气之先的长三角地区发展中如饥似渴地汲取能量。这是一次牢记初心使命、推进自我革新的精神之旅，是一次践行新发展理念、更新思想观念的学习之旅，一次科学把握新发展阶段、主动融入新发展格局的合作之旅。', '砥砺初心，坚定不移走好新时代长征路。我省党政代表团先后瞻仰了中共一大会址、南湖红船，参观了革命纪念馆，重温入党誓词，回望初心使命，在中国共产党成立100周年前夕，上了一堂生动深刻、立意深远的党课。', '隐藏在上海居民区的一大会址，静静地停泊于嘉兴南湖的红船，是我们党梦想起航的地方，昭示着共产党人的初心和使命。河南孕育生发的焦裕禄精神、红旗渠精神、大别山精神与“红船精神”一脉相承、紧密相连，共同注入共产党人的血脉。当前，我省正全力打赢脱贫攻坚收官战，扎实做好“六稳”“六保”工作，迈向全面建设社会主义现代化的新征程，尤须把党的“精神之火”传承好、发扬好，从中汲取无穷的力量，以永不懈怠的精神状态和一往无前的奋斗姿态，坚定不移走好新时代长征路。', '对接引进，务实借力推进高质量发展。党的十九届五中全会提出，“加快发展现代产业体系，推动经济体系优化升级”“推进产业基础高级化、产业链现代化，提高经济质量效益和核心竞争力”。今天的河南，在进行承接产业转移量的积累的同时，亟须质的提升。比如，我省吸引了上海汽车、宝武钢铁、阿里巴巴、拼多多等一大批中国500强企业、龙头企业先后来豫投资，有效助推了我省产业转型升级提质增效和主导产业集群培育。', '本次在上海、江苏、浙江签约的一系列项目，涵盖数字经济、先进制造、生物制药、科技创新、金融旅游、教育医疗等多个领域，体现了更深层次的产业合作、更高能级的产业模式、更高水平的产业生态，对于我省打好产业基础高级化、产业链现代化攻坚战，着力形成“能级更高、结构更优、创新更强、动能更足、效益更好”发展态势，必将发挥巨大的推动作用。', '更新观念，矢志不移凝聚起奋勇争先的精气神。从G60科创走廊的创新生态圈到紫金山实验室的高精尖技术，从浦东新区企业服务中心的“AI+政务服务”到杭州的“城市大脑”，从西湖大学的科研成就到先声药业的新药研发……在这次考察学习中，来自长三角的改革魄力、创新精神、开放意识、服务理念，带来了认识的冲击、思想的震撼和深刻的思考，愈加汇聚起坚定不移实施创新驱动发展的共识。', '党的十九届五中全会通过的“十四五”规划建议和2035年远景目标中，新发展理念贯穿发展的全过程和全领域。通过这次考察学习，深入感悟学习那种敢闯敢试、敢为人先的创新意识和“会吃螃蟹、敢吃螃蟹”的首创精神，学习那种“把冷板凳坐热”的苦干精神和“争第一、创唯一”的精气神，学习那种智慧型“店小二”的服务精神和与世界接轨的开放精神，切实转变发展观念，以新发展理念为引领，奋勇争先，勇创一流，我省经济社会发展定能颜值更高、筋骨更壮、气质更佳。', '抢抓机遇，积极主动融入新发展格局。加快构建以国内大循环为主体、国内国际双循环相互促进的新发展格局，是事关全局的系统性、深层次变革。河南市场空间广阔、人力资源丰富、区位优势独特，中部地区崛起、黄河流域生态保护和高质量发展等重大战略机遇叠加，正释放巨大的消费和投资需求，如火如荼打造国内大循环的重要战略支点、国内国际双循环的重要战略节点。', '我省与长三角产业对接性强、关联度高，产业供应联系紧密，深化合作潜力巨大。以这次考察学习之行为契机，把上海、江苏、浙江的技术优势、资本优势与河南的市场优势、资源优势结合起来，在推动区域协调发展、科技创新、产业合作、数字经济等方面开展全方位、多领域的合作，在国家战略对接中抢抓机遇、加快发展，在主动融入“双循环”中优势互补、互利共赢，必能打造跨区域合作和国内循环示范样本，为全国发展大局作出新的更大贡献。', '风从东方来，潮涌大中原。打开一张中国地图，黄河中下游沿线城市发展带与长江经济带、长三角，清晰地构成了中国经济的两大地理横轴。双方加强合作交流，共享发展新机遇，携手构建新发展格局，定能谱写新时代区域协调发展的绚丽篇章。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>161</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>二论河南省党政代表团赴沪苏浙地区学习考察</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202011/116600.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['对标先进学经验，锚定目标谋发展。作为深入贯彻党的十九届五中全会精神的务实举措，我省党政代表团赴沪苏浙学习考察，目的明确，收获满满。6天3省市，集中而密集的行程反映了代表团此行的重点。在上海瞻仰中共一大会址，赴浙江嘉兴瞻仰南湖红船，重温党的历史，接受初心教育，砥砺奋斗精神。每到一地，代表团都要举行战略合作签约、项目交流合作等一系列政务商务活动，与当地知名企业家和院校负责人举行见面会，实地探访知名企业、金融科创机构等，既开拓了视野，又深化了合作。', '一路学习，一路思考，沪苏浙传承红色基因、加速融入“双循环”新发展格局、自主创新培育新经济等一系列扎实举措，给我省党政代表团留下深刻印象，启迪着我们见贤思齐，深入贯彻新发展理念，在新发展阶段拉高标杆，在畅通“双循环”中找准着力点、突破口，在现代化河南建设新征程上奋勇争先，再创佳绩。', '启迪一：传承红色基因，砥砺奋斗精神。上海市兴业路76号，隐藏在居民区普通的石库门建筑，成为中国共产党创业的起点，折射着百折不挠的奋斗精神，留下了为中国人民谋幸福、为中华民族谋复兴的百年启示。对先辈们每一次仰望，都是一次精神的洗礼；每一次追忆，都是一次思想的“充电”。时代不同，但理想信仰不变，奋斗的精神内核不变。我省党政代表团瞻仰中共一大会址、南湖红船，目睹浦东三十年的沧桑巨变，对中国共产党的初心使命领悟更加深刻，为河南一亿人民群众谋幸福的责任感使命感更加强烈。新时代新征程，广大党员干部要进一步增强“四个意识”，坚定“四个自信”，做到“两个维护”，勇于担当、奋发有为，时刻聆听“石库门”的启迪，以实干浇筑梦想，以奋斗创造美好生活。', '启迪二：对接国家战略，主动融入新发展格局。近日，习近平总书记先后赴上海、江苏等地考察。在上海，习近平总书记强调“努力成为国内大循环的中心节点和国内国际双循环的战略链接”。习近平总书记在江苏考察时强调，着力在改革创新、推动高质量发展上争当表率，在服务全国构建新发展格局上争做示范。上海向外开放与世界接轨，向内开放拉动长江经济带区域协调发展；江苏以省内循环为牵引，支撑国内循环、推动东亚循环、促进国际循环；浙江内外双修，充分激发内需市场，发力数字经济等新领域……沪苏浙在构建“双循环”新发展格局上各具特色。河南消费市场广阔、人力资源丰富、产业体系完备，是全国重要的综合交通枢纽和商贸物流中心，与兄弟省份合作空间广阔、潜力巨大。我们当开展全方位、多领域的合作，在对接国家战略中抢抓机遇、加快发展，在主动融入“双循环”中优势互补、互利共赢，共创新时代合作新局面。', '启迪三：坚持创新驱动，走高质量发展之路。这次沪苏浙之行，对科研创新的学习考察也是一大特色。在上海，长三角G60科创走廊规划展示馆集中展示“多城协同”产学研合作成果，一体化让创新无缝对接；在江苏，苏州生物医药产业园打造开放创新平台，构筑“众创+孵化+加速+产业园”链条式模式；在杭州，城市大脑运营指挥中心覆盖交通、医疗、旅游、健康11大系统48个应用场景，日均协同数据2亿余次，数字杭州不仅是发展引擎、经济形态，更是生活方式、治理能力……对比先进地区，无论在行业规模还是在创新能力上，河南的差距都还不小。我们唯有只争朝夕、快马加鞭，学习先进理念、运营模式、服务意识，吸引更多创新人才扎根中原，才能迎来属于自己的高光时刻。', '毛泽东同志曾指出，有了学问，好比站在山上，可以看到很远很多东西。从先进经验中汲取智慧，拉高标杆，奋楫前行，我们就一定能挺立潮头实现更大发展。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>161</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>河南省党政代表团将赴上海江苏浙江学习考察</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202011/116173.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['明日上午，我省党政代表团将赴上海、江苏、浙江学习考察，深入贯彻落实党的十九届五中全会精神，深度对接长三角一体化和长江经济带国家战略，学习借鉴先进地区发展经验，主动融入“双循环”新发展格局。省委书记王国生、省长尹弘、省政协主席刘伟率团前往。', '期间，代表团将赴上海瞻仰中共一大会址、浙江嘉兴瞻仰南湖红船，回顾建党历史，传承红色基因，砥砺奋斗精神；与上海、江苏、浙江举行战略合作签约、项目交流合作等一系列政务商务活动，与三地知名企业家和院校负责人举行见面会，并深入多家知名企业、金融机构、科创机构参观考察。', '本次活动将立足我省区位交通、人力资源、市场规模、生态环境等优势，推动河南与上海、江苏、浙江在制造业、农业、金融、旅游、科技创新、教育医疗、基础设施建设等领域的交往交流，进一步深化战略合作、巩固扩大合作成果，打造跨区域合作和国内循环示范样本，推进“十四五”期间全方位、多领域、深层次交流合作，实现各方优势互补、互利共赢，为建设现代化河南提供有力支撑。', '部分省级领导，各省辖市党委、济源示范区党工委主要负责同志，省直有关单位负责同志参加活动。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>161</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>河南乡村振兴示范县学习考察团赴赣浙取经</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2020-09-09</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202009/112708.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['记者9月8日从省委农办获悉，根据省委、省政府安排，当天，20个河南省乡村振兴示范县党委主要负责同志启程赴江西省横峰县、浙江省安吉县，围绕推动乡村全面振兴、改善农村人居环境学习考察。', '本次学习考察活动从9月8日至11日，由省委、省政府相关负责同志带队，新密市、林州市、孟津县、新县、长垣市等20个乡村振兴示范县党委主要负责同志参加。', '我省正在积极谋划打赢脱贫攻坚战后各项工作，探索脱贫攻坚与乡村振兴有效衔接的具体举措，此次考察取经活动具有重要意义。浙江省安吉县是“绿水青山就是金山银山”理念发源地、中国美丽乡村发源地和绿色发展先行地，形成了具有地方特色的“1+2+3”生态产业体系，美丽乡村创建实现全覆盖；江西省横峰县山水资源丰富，坚持“一村一品”“一乡一业”，构建起以横峰葛、油茶为主导的“1+N”优势特色农业产业体系，“秀美乡村”建设和村级集体经济发展成效显著，两地在推动乡村振兴、人居环境整治方面均走在全国前列。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>161</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>西平县考察团来我区学习考察创卫工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2020-09-09</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/201608/34249.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['，西平县委宣传部长带领县直相关部门、街道社区负责人创卫考察团一行28人来我区参观学习国家卫生城市创建工作，驿城区委副书记张二林、区卫计委、爱卫办、相关街道负责人陪同参观考察。', '考察团一行参观了交通路垃圾中转站及公共卫生间、城中村背街小巷、橡林街道胡庄新村、张西市场、西园街道前王社区老旧小区改造等工作，并与办事处和社区工作人员进行详细交流和探讨。考察团一行对我区创卫工作给予高度评价，认为驿城区高标准推进创卫工作，呈现出很多亮点，美化了城市环境，给老百姓带来了很多实惠，值得学习和借鉴。并表示回去后将结合实际，认真借鉴驿城区创卫经验，强力推进西平县创卫各项工作再上新台阶。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>161</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>驻马店市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>贵州省铜仁市考察组来我县学习考察农产品加工业发展</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2020-09-09</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.zhumadian.gov.cn/html/site_gov/articles/202005/105991.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['考察组一行先后来到徐福记、中花粮油、克明面业、今麦郎等地进行实地察看，了解农产品加工产业园发展情况。', '通过实地察看，考察组对我县产业园的整体布局和未来规划有了全面的了解，并对以先进生产工艺设备、先进质量保障体系为支撑，打造集食品加工、仓储、展示展销、产品研发于一体的一站式全类型食品供应平台的做法给予了高度的评价。', '驻马店市人大常委会|政协驻马店市委员会|驻马店市监察委员会|驻马店市中级人民法院|驻马店市人民检察院']</t>
         </is>
